--- a/profil kemiskinan.xlsx
+++ b/profil kemiskinan.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\lenovo\DATA\Skripsi\Forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\lenovo\DATA\Skripsi\Forecasting\Skripsi Didik AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kemiskinan_2" sheetId="1" r:id="rId1"/>
     <sheet name="kemiskinan" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
-  <si>
-    <t>id_kemiskinan</t>
-  </si>
-  <si>
-    <t>tahun</t>
-  </si>
-  <si>
-    <t>semester</t>
-  </si>
-  <si>
-    <t>jumlah</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>MA(3)</t>
   </si>
@@ -95,13 +83,31 @@
   </si>
   <si>
     <t>https://medium.com/@wahyudhizainal/single-moving-average-with-excel-b9c1c47a84a4</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>September</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,8 +145,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +172,20 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,19 +208,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +259,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -557,913 +636,925 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>29250000</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>28710000</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>28170000</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2012</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>29250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B5" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2012</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>28710000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2013</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>28170000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2013</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <v>28600000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <f t="shared" ref="E5:E27" si="0">ROUND(AVERAGE(D2:D4),0)</f>
         <v>28710000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="20">
         <f t="shared" ref="F5:F27" si="1">(D5-E5)</f>
         <v>-110000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="21">
         <f t="shared" ref="G5:G27" si="2">F5^2</f>
         <v>12100000000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="22">
         <f t="shared" ref="H5:H27" si="3">ABS(F5/D5)</f>
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="19">
         <v>2014</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>28280000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>28493333</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="20">
         <f t="shared" si="1"/>
         <v>-213333</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="21">
         <f t="shared" si="2"/>
         <v>45510968889</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="22">
         <f t="shared" si="3"/>
         <v>7.5435997171145689E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="19">
         <v>2014</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>27730000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>28350000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="20">
         <f t="shared" si="1"/>
         <v>-620000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
         <v>384400000000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="22">
         <f t="shared" si="3"/>
         <v>2.2358456545257845E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="19">
         <v>2015</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
         <v>28590000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>28203333</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="20">
         <f t="shared" si="1"/>
         <v>386667</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="21">
         <f t="shared" si="2"/>
         <v>149511368889</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="22">
         <f t="shared" si="3"/>
         <v>1.3524554039874083E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="19">
         <v>2015</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="19">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="19">
         <v>28510000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>28200000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>310000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="21">
         <f t="shared" si="2"/>
         <v>96100000000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>1.0873377762188706E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="19">
         <v>2016</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="19">
         <v>28010000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>28276667</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="20">
         <f t="shared" si="1"/>
         <v>-266667</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="21">
         <f t="shared" si="2"/>
         <v>71111288889</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>9.5204212781149593E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="19">
         <v>2016</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="19">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="19">
         <v>27760000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>28370000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>-610000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="21">
         <f t="shared" si="2"/>
         <v>372100000000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>2.1974063400576369E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="19">
         <v>2017</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="19">
         <v>27770000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>28093333</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="20">
         <f t="shared" si="1"/>
         <v>-323333</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="21">
         <f t="shared" si="2"/>
         <v>104544228889</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>1.1643248109470651E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="19">
         <v>2017</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="19">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="19">
         <v>26580000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
         <v>27846667</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="20">
         <f t="shared" si="1"/>
         <v>-1266667</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="21">
         <f t="shared" si="2"/>
         <v>1604445288889</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="22">
         <f t="shared" si="3"/>
         <v>4.7654890895410085E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="19">
         <v>2018</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="19">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <v>25950000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>27370000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="20">
         <f t="shared" si="1"/>
         <v>-1420000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="21">
         <f t="shared" si="2"/>
         <v>2016400000000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5.4720616570327556E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="19">
         <v>2018</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="19">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="19">
         <v>25670000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>26766667</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>-1096667</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
         <v>1202678508889</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="22">
         <f t="shared" si="3"/>
         <v>4.2721737436696536E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="19">
         <v>2019</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="19">
         <v>25140000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
         <v>26066667</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="20">
         <f t="shared" si="1"/>
         <v>-926667</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="21">
         <f t="shared" si="2"/>
         <v>858711728889</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="22">
         <f t="shared" si="3"/>
         <v>3.6860262529832932E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="19">
         <v>2019</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="19">
         <f t="shared" ref="D17:D27" si="4">E16</f>
         <v>26066667</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
         <v>25586667</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>480000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="21">
         <f t="shared" si="2"/>
         <v>230400000000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="22">
         <f t="shared" si="3"/>
         <v>1.8414322015162122E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="19">
         <v>2020</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="19">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="19">
         <f t="shared" si="4"/>
         <v>25586667</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
         <v>25625556</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="20">
         <f t="shared" si="1"/>
         <v>-38889</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="21">
         <f t="shared" si="2"/>
         <v>1512354321</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="22">
         <f t="shared" si="3"/>
         <v>1.5198931537272909E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="19">
         <v>2020</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="19">
         <f t="shared" si="4"/>
         <v>25625556</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="19">
         <f t="shared" si="0"/>
         <v>25597778</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>27778</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="21">
         <f t="shared" si="2"/>
         <v>771617284</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="22">
         <f t="shared" si="3"/>
         <v>1.0839959921259855E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="19">
         <v>2021</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="19">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="19">
         <f t="shared" si="4"/>
         <v>25597778</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
         <v>25759630</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="20">
         <f t="shared" si="1"/>
         <v>-161852</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="21">
         <f t="shared" si="2"/>
         <v>26196069904</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="22">
         <f t="shared" si="3"/>
         <v>6.3228925573149356E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="19">
         <v>2021</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="19">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="19">
         <f t="shared" si="4"/>
         <v>25759630</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
         <v>25603334</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="20">
         <f t="shared" si="1"/>
         <v>156296</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="21">
         <f t="shared" si="2"/>
         <v>24428439616</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="22">
         <f t="shared" si="3"/>
         <v>6.0674784536889695E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="19">
         <v>2022</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="19">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="19">
         <f t="shared" si="4"/>
         <v>25603334</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>25660988</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="20">
         <f t="shared" si="1"/>
         <v>-57654</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="21">
         <f t="shared" si="2"/>
         <v>3323983716</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="22">
         <f t="shared" si="3"/>
         <v>2.2518161111361513E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="19">
         <v>2022</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="19">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="19">
         <f t="shared" si="4"/>
         <v>25660988</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>25653581</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="20">
         <f t="shared" si="1"/>
         <v>7407</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="21">
         <f t="shared" si="2"/>
         <v>54863649</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="22">
         <f t="shared" si="3"/>
         <v>2.886482780787708E-4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="19">
         <v>2023</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="19">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="19">
         <f t="shared" si="4"/>
         <v>25653581</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="19">
         <f t="shared" si="0"/>
         <v>25674651</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="20">
         <f t="shared" si="1"/>
         <v>-21070</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="21">
         <f t="shared" si="2"/>
         <v>443944900</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="22">
         <f t="shared" si="3"/>
         <v>8.21327829436366E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="19">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="19">
         <f t="shared" si="4"/>
         <v>25674651</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="19">
         <f t="shared" si="0"/>
         <v>25639301</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="20">
         <f t="shared" si="1"/>
         <v>35350</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="21">
         <f t="shared" si="2"/>
         <v>1249622500</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="22">
         <f t="shared" si="3"/>
         <v>1.3768444213711026E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="19">
         <v>2024</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="19">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="19">
         <f t="shared" si="4"/>
         <v>25639301</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>25663073</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="20">
         <f t="shared" si="1"/>
         <v>-23772</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="21">
         <f t="shared" si="2"/>
         <v>565107984</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="22">
         <f t="shared" si="3"/>
         <v>9.2717036240574577E-4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="19">
         <v>2024</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="19">
         <v>2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="19">
         <f t="shared" si="4"/>
         <v>25663073</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>25655844</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="20">
         <f t="shared" si="1"/>
         <v>7229</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="21">
         <f t="shared" si="2"/>
         <v>52258441</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="22">
         <f t="shared" si="3"/>
         <v>2.8168879073835001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="9" t="s">
-        <v>8</v>
+      <c r="D30" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9">
         <f>SUM(G5:G27)</f>
         <v>7206611644538</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
-        <v>10</v>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="10">
+        <v>7</v>
+      </c>
+      <c r="F31" s="9">
         <f>AVERAGE(G5:G27)</f>
         <v>313330941066.86957</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="9">
         <f>SQRT(F31)</f>
         <v>559759.71725988784</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="9" t="s">
-        <v>13</v>
+      <c r="D33" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="11">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10">
         <f>AVERAGE(H5:H27)</f>
         <v>1.4025976525921914E-2</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1472,7 +1563,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,429 +1579,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3">
+        <v>29250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>28710000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>28170000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2012</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>29250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2012</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>28710000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="B5" s="3">
         <v>2013</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>28170000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2013</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
         <v>28600000</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E17" si="0">AVERAGE(D2:D4)</f>
         <v>28710000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" ref="F5:F16" si="1">(D5-E5)</f>
         <v>-110000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G16" si="2">F5^2</f>
         <v>12100000000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" ref="H5:H16" si="3">ABS(F5/D5)</f>
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2014</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
         <v>28280000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>28493333.333333332</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>-213333.33333333209</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>45511111111.11058</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="3"/>
         <v>7.5436115040074993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2014</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
         <v>27730000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>28350000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>-620000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>384400000000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="3"/>
         <v>2.2358456545257845E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2015</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
         <v>28590000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>28203333.333333332</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>386666.66666666791</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>149511111111.11206</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
         <v>1.3524542380785865E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
         <v>28510000</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>28200000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>310000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>96100000000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
         <v>1.0873377762188706E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
         <v>28010000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>28276666.666666668</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>-266666.66666666791</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>71111111111.111771</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="3"/>
         <v>9.5204093776032808E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>2016</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
         <v>27760000</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>28370000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>-610000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>372100000000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
         <v>2.1974063400576369E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>2017</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3">
         <v>27770000</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>28093333.333333332</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>-323333.33333333209</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>104544444444.44363</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="3"/>
         <v>1.1643260112831549E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>2017</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
         <v>26580000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>27846666.666666668</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>-1266666.6666666679</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>1604444444444.4475</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="3"/>
         <v>4.7654878354652666E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2018</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
         <v>25950000</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>27370000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>-1420000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>2016400000000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="3"/>
         <v>5.4720616570327556E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2018</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
         <v>25670000</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>26766666.666666668</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>-1096666.6666666679</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
         <v>1202677777777.7805</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="3"/>
         <v>4.272172445137E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>2019</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3">
         <v>25140000</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>26066666.666666668</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>-926666.66666666791</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="2"/>
         <v>858711111111.1134</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>3.686024927075051E-2</v>
       </c>
@@ -1920,121 +2011,121 @@
         <f t="shared" si="0"/>
         <v>25586666.666666668</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="9" t="s">
-        <v>8</v>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9">
         <f>SUM(G5:G16)</f>
         <v>6917611111111.1191</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
-        <v>10</v>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="10">
+        <v>7</v>
+      </c>
+      <c r="F20" s="9">
         <f>AVERAGE(G5:G16)</f>
         <v>576467592592.59326</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9">
         <f>SQRT(F20)</f>
         <v>759254.62961551524</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
-        <v>13</v>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10">
         <f>AVERAGE(H5:H16)</f>
         <v>2.3603445298042137E-2</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2057,8 +2148,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
+      <c r="A1" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/profil kemiskinan.xlsx
+++ b/profil kemiskinan.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\lenovo\DATA\Skripsi\Forecasting\Skripsi Didik AM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skripsi\Forecasting\Skripsi Didik AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B1B8D2-D86F-4F9E-AD62-E3931852BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kemiskinan_2" sheetId="1" r:id="rId1"/>
     <sheet name="kemiskinan" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
   <si>
     <t>MA(3)</t>
   </si>
@@ -82,31 +101,25 @@
     <t>: Mean Absolute Percentage Error</t>
   </si>
   <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
     <t>https://medium.com/@wahyudhizainal/single-moving-average-with-excel-b9c1c47a84a4</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>Maret</t>
-  </si>
-  <si>
-    <t>September</t>
+    <t>: Sum Of Squared Error</t>
+  </si>
+  <si>
+    <t>: Mean Squared Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,6 +130,20 @@
     </font>
     <font>
       <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -124,6 +151,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -145,21 +173,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,20 +183,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,6 +218,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -221,26 +243,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,42 +257,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -295,7 +301,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -388,7 +394,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -400,7 +406,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -417,9 +423,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -447,14 +453,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -482,6 +505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,1499 +673,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="3">
         <v>2012</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="3">
         <v>29250000</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="3">
         <v>2012</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="3">
         <v>28710000</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="3">
         <v>2013</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="3">
         <v>28170000</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="3">
         <v>2013</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="3">
         <v>28600000</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="3">
         <f t="shared" ref="E5:E27" si="0">ROUND(AVERAGE(D2:D4),0)</f>
         <v>28710000</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F27" si="1">(D5-E5)</f>
         <v>-110000</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="5">
         <f t="shared" ref="G5:G27" si="2">F5^2</f>
         <v>12100000000</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="6">
         <f t="shared" ref="H5:H27" si="3">ABS(F5/D5)</f>
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="3">
         <v>2014</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="3">
         <v>28280000</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>28493333</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>-213333</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="5">
         <f t="shared" si="2"/>
         <v>45510968889</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="6">
         <f t="shared" si="3"/>
         <v>7.5435997171145689E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="3">
         <v>2014</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="3">
         <v>27730000</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>28350000</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>-620000</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>384400000000</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="6">
         <f t="shared" si="3"/>
         <v>2.2358456545257845E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="3">
         <v>2015</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="3">
         <v>28590000</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>28203333</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>386667</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
         <v>149511368889</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="6">
         <f t="shared" si="3"/>
         <v>1.3524554039874083E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="3">
         <v>2015</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="3">
         <v>28510000</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>28200000</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>310000</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>96100000000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="6">
         <f t="shared" si="3"/>
         <v>1.0873377762188706E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="3">
         <v>2016</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="3">
         <v>28010000</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>28276667</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>-266667</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>71111288889</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="6">
         <f t="shared" si="3"/>
         <v>9.5204212781149593E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="3">
         <v>2016</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="3">
         <v>27760000</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>28370000</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>-610000</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
         <v>372100000000</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="6">
         <f t="shared" si="3"/>
         <v>2.1974063400576369E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="3">
         <v>2017</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="3">
         <v>27770000</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>28093333</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>-323333</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
         <v>104544228889</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="6">
         <f t="shared" si="3"/>
         <v>1.1643248109470651E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="3">
         <v>2017</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="3">
         <v>26580000</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>27846667</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>-1266667</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>1604445288889</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="6">
         <f t="shared" si="3"/>
         <v>4.7654890895410085E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="3">
         <v>2018</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="3">
         <v>25950000</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>27370000</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>-1420000</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>2016400000000</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="6">
         <f t="shared" si="3"/>
         <v>5.4720616570327556E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="3">
         <v>2018</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="3">
         <v>25670000</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>26766667</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>-1096667</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>1202678508889</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="6">
         <f t="shared" si="3"/>
         <v>4.2721737436696536E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="3">
         <v>2019</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="3">
         <v>25140000</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>26066667</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>-926667</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
         <v>858711728889</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="6">
         <f t="shared" si="3"/>
         <v>3.6860262529832932E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="3">
         <v>2019</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="3">
         <f t="shared" ref="D17:D27" si="4">E16</f>
         <v>26066667</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>25586667</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>480000</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="5">
         <f t="shared" si="2"/>
         <v>230400000000</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="6">
         <f t="shared" si="3"/>
         <v>1.8414322015162122E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="3">
         <v>2020</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="3">
         <f t="shared" si="4"/>
         <v>25586667</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>25625556</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>-38889</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="5">
         <f t="shared" si="2"/>
         <v>1512354321</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="6">
         <f t="shared" si="3"/>
         <v>1.5198931537272909E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="3">
         <v>2020</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="3">
         <f t="shared" si="4"/>
         <v>25625556</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>25597778</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>27778</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>771617284</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="6">
         <f t="shared" si="3"/>
         <v>1.0839959921259855E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="3">
         <v>2021</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="3">
         <f t="shared" si="4"/>
         <v>25597778</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>25759630</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
         <v>-161852</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="5">
         <f t="shared" si="2"/>
         <v>26196069904</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
         <v>6.3228925573149356E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="3">
         <v>2021</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="3">
         <f t="shared" si="4"/>
         <v>25759630</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>25603334</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>156296</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
         <v>24428439616</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="6">
         <f t="shared" si="3"/>
         <v>6.0674784536889695E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="3">
         <v>2022</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="3">
         <f t="shared" si="4"/>
         <v>25603334</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>25660988</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>-57654</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
         <v>3323983716</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="6">
         <f t="shared" si="3"/>
         <v>2.2518161111361513E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="3">
         <v>2022</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="3">
         <f t="shared" si="4"/>
         <v>25660988</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>25653581</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>7407</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="5">
         <f t="shared" si="2"/>
         <v>54863649</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="6">
         <f t="shared" si="3"/>
         <v>2.886482780787708E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="3">
         <v>2023</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="3">
         <f t="shared" si="4"/>
         <v>25653581</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>25674651</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>-21070</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
         <v>443944900</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="6">
         <f t="shared" si="3"/>
         <v>8.21327829436366E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="3">
         <v>2023</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="3">
         <f t="shared" si="4"/>
         <v>25674651</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>25639301</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>35350</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="5">
         <f t="shared" si="2"/>
         <v>1249622500</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="6">
         <f t="shared" si="3"/>
         <v>1.3768444213711026E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="3">
         <v>2024</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="3">
         <f t="shared" si="4"/>
         <v>25639301</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>25663073</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>-23772</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="5">
         <f t="shared" si="2"/>
         <v>565107984</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="6">
         <f t="shared" si="3"/>
         <v>9.2717036240574577E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="3">
         <v>2024</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="3">
         <f t="shared" si="4"/>
         <v>25663073</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>25655844</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>7229</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="5">
         <f t="shared" si="2"/>
         <v>52258441</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="6">
         <f t="shared" si="3"/>
         <v>2.8168879073835001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="8" t="s">
-        <v>4</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="9">
+        <v>9</v>
+      </c>
+      <c r="F30" s="12">
         <f>SUM(G5:G27)</f>
         <v>7206611644538</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="8" t="s">
-        <v>6</v>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="9">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12">
         <f>AVERAGE(G5:G27)</f>
         <v>313330941066.86957</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12">
         <f>SQRT(F31)</f>
         <v>559759.71725988784</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="8" t="s">
-        <v>9</v>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="10">
+        <v>14</v>
+      </c>
+      <c r="F33" s="13">
         <f>AVERAGE(H5:H27)</f>
         <v>1.4025976525921914E-2</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="13"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D2" s="18">
+        <v>29250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B3" s="18">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="18">
+        <v>28710000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="18">
+        <v>2013</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="18">
+        <v>28170000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3">
-        <v>29250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3">
-        <v>28710000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3">
-        <v>28170000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="18">
         <v>28600000</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E17" si="0">AVERAGE(D2:D4)</f>
         <v>28710000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="18">
         <f t="shared" ref="F5:F16" si="1">(D5-E5)</f>
         <v>-110000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="19">
         <f t="shared" ref="G5:G16" si="2">F5^2</f>
         <v>12100000000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="20">
         <f t="shared" ref="H5:H16" si="3">ABS(F5/D5)</f>
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="18">
         <v>2014</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18">
+        <v>28280000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>28493333.333333332</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>-213333.33333333209</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="2"/>
+        <v>45511111111.11058</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="3"/>
+        <v>7.5436115040074993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3">
-        <v>28280000</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>28493333.333333332</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>-213333.33333333209</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>45511111111.11058</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="3"/>
-        <v>7.5436115040074993E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="D7" s="18">
         <v>27730000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>28350000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="18">
         <f t="shared" si="1"/>
         <v>-620000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="19">
         <f t="shared" si="2"/>
         <v>384400000000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="20">
         <f t="shared" si="3"/>
         <v>2.2358456545257845E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="18">
         <v>2015</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18">
+        <v>28590000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>28203333.333333332</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>386666.66666666791</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="2"/>
+        <v>149511111111.11206</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3524542380785865E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3">
-        <v>28590000</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>28203333.333333332</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>386666.66666666791</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>149511111111.11206</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3524542380785865E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="D9" s="18">
+        <v>28510000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>28200000</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>310000</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="2"/>
+        <v>96100000000</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0873377762188706E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="18">
+        <v>28010000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>28276666.666666668</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>-266666.66666666791</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="2"/>
+        <v>71111111111.111771</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="3"/>
+        <v>9.5204093776032808E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="18">
+        <v>27760000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>28370000</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>-610000</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="2"/>
+        <v>372100000000</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="3"/>
+        <v>2.1974063400576369E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="18">
+        <v>27770000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>28093333.333333332</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
+        <v>-323333.33333333209</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="2"/>
+        <v>104544444444.44363</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1643260112831549E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="18">
+        <v>26580000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>27846666.666666668</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
+        <v>-1266666.6666666679</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="2"/>
+        <v>1604444444444.4475</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="3"/>
+        <v>4.7654878354652666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="18">
+        <v>25950000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>27370000</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="1"/>
+        <v>-1420000</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="2"/>
+        <v>2016400000000</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="3"/>
+        <v>5.4720616570327556E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="18">
+        <v>25670000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>26766666.666666668</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
+        <v>-1096666.6666666679</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="2"/>
+        <v>1202677777777.7805</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="3"/>
+        <v>4.272172445137E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="18">
+        <v>25140000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>26066666.666666668</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="1"/>
+        <v>-926666.66666666791</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="2"/>
+        <v>858711111111.1134</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="3"/>
+        <v>3.686024927075051E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>25586666.666666668</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
-        <v>28510000</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>28200000</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>310000</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>96100000000</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0873377762188706E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
-        <v>28010000</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>28276666.666666668</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>-266666.66666666791</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>71111111111.111771</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="3"/>
-        <v>9.5204093776032808E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>27760000</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>28370000</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>-610000</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>372100000000</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>2.1974063400576369E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3">
-        <v>27770000</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>28093333.333333332</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>-323333.33333333209</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
-        <v>104544444444.44363</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="3"/>
-        <v>1.1643260112831549E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
-        <v>26580000</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>27846666.666666668</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>-1266666.6666666679</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>1604444444444.4475</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="3"/>
-        <v>4.7654878354652666E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25950000</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>27370000</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>-1420000</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>2016400000000</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="3"/>
-        <v>5.4720616570327556E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3">
-        <v>25670000</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>26766666.666666668</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>-1096666.6666666679</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>1202677777777.7805</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="3"/>
-        <v>4.272172445137E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3">
-        <v>25140000</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>26066666.666666668</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>-926666.66666666791</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="2"/>
-        <v>858711111111.1134</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>3.686024927075051E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>25586666.666666668</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="F19" s="12">
         <f>SUM(G5:G16)</f>
         <v>6917611111111.1191</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="8" t="s">
-        <v>6</v>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="9">
+        <v>11</v>
+      </c>
+      <c r="F20" s="12">
         <f>AVERAGE(G5:G16)</f>
         <v>576467592592.59326</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12">
         <f>SQRT(F20)</f>
         <v>759254.62961551524</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="8" t="s">
-        <v>9</v>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="10">
+        <v>14</v>
+      </c>
+      <c r="F22" s="13">
         <f>AVERAGE(H5:H16)</f>
         <v>2.3603445298042137E-2</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="13"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
+      <c r="B33" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2135,26 +2190,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="9.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
